--- a/Graphics/Diagrams.xlsx
+++ b/Graphics/Diagrams.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emilsmatiss/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mati0030\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -57,6 +54,15 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>For Physics Group</t>
+  </si>
+  <si>
+    <t>For Graphics Group</t>
   </si>
 </sst>
 </file>
@@ -80,12 +86,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -109,9 +133,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -121,6 +149,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -389,52 +420,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="23.6640625" customWidth="1"/>
+    <col min="1" max="6" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Graphics/Diagrams.xlsx
+++ b/Graphics/Diagrams.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mati0030\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +58,18 @@
   </si>
   <si>
     <t>For Graphics Group</t>
+  </si>
+  <si>
+    <t>Elastic Collision</t>
+  </si>
+  <si>
+    <t>collision between pool balls</t>
+  </si>
+  <si>
+    <t>24/06/2016`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack </t>
   </si>
 </sst>
 </file>
@@ -135,11 +142,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,7 +419,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -420,50 +427,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="23.625" customWidth="1"/>
+    <col min="1" max="6" width="23.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -477,6 +484,26 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Graphics/Diagrams.xlsx
+++ b/Graphics/Diagrams.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t xml:space="preserve">Jack </t>
+  </si>
+  <si>
+    <t>Free Body Diagram</t>
+  </si>
+  <si>
+    <t>24/06/2016</t>
+  </si>
+  <si>
+    <t>Joe</t>
   </si>
 </sst>
 </file>
@@ -207,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -242,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -419,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -427,18 +436,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="23.58203125" customWidth="1"/>
+    <col min="1" max="6" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -450,7 +459,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="21.5" thickBot="1">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -470,7 +479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -487,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -504,6 +513,23 @@
         <v>9</v>
       </c>
       <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -512,5 +538,10 @@
     <mergeCell ref="C1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>